--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Dev Information Technology Ltd/Pruned_Excel/Pruned_Quarterly-resul_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Dev Information Technology Ltd/Pruned_Excel/Pruned_Quarterly-resul_combined.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Quarterly Results of Dev Information Technology(in Rs. Cr.)</t>
   </si>
@@ -125,6 +125,51 @@
   </si>
   <si>
     <t>Sep '24</t>
+  </si>
+  <si>
+    <t>24.56</t>
+  </si>
+  <si>
+    <t>22.59</t>
+  </si>
+  <si>
+    <t>15.60</t>
+  </si>
+  <si>
+    <t>29.08</t>
+  </si>
+  <si>
+    <t>31.75</t>
+  </si>
+  <si>
+    <t>26.01</t>
+  </si>
+  <si>
+    <t>27.15</t>
+  </si>
+  <si>
+    <t>26.93</t>
+  </si>
+  <si>
+    <t>41.89</t>
+  </si>
+  <si>
+    <t>58.89</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.72</t>
+  </si>
+  <si>
+    <t>37.68</t>
+  </si>
+  <si>
+    <t>30.19</t>
+  </si>
+  <si>
+    <t>32.02</t>
   </si>
 </sst>
 </file>
@@ -560,8 +605,8 @@
       <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="B2">
-        <v>24.56</v>
+      <c r="B2" t="s">
+        <v>37</v>
       </c>
       <c r="C2">
         <v>24.56</v>
@@ -628,8 +673,8 @@
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3">
-        <v>22.59</v>
+      <c r="B3" t="s">
+        <v>38</v>
       </c>
       <c r="C3">
         <v>22.59</v>
@@ -683,21 +728,21 @@
         <v>0.22</v>
       </c>
       <c r="T3">
-        <v>1.299285714285714</v>
+        <v>1.3</v>
       </c>
       <c r="U3">
         <v>0.22</v>
       </c>
       <c r="V3">
-        <v>1.299285714285714</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="B4">
-        <v>15.6</v>
+      <c r="B4" t="s">
+        <v>39</v>
       </c>
       <c r="C4">
         <v>15.6</v>
@@ -764,8 +809,8 @@
       <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="B5">
-        <v>29.08</v>
+      <c r="B5" t="s">
+        <v>40</v>
       </c>
       <c r="C5">
         <v>29.08</v>
@@ -832,8 +877,8 @@
       <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="B6">
-        <v>31.75</v>
+      <c r="B6" t="s">
+        <v>41</v>
       </c>
       <c r="C6">
         <v>31.75</v>
@@ -900,8 +945,8 @@
       <c r="A7" t="s">
         <v>27</v>
       </c>
-      <c r="B7">
-        <v>26.01</v>
+      <c r="B7" t="s">
+        <v>42</v>
       </c>
       <c r="C7">
         <v>26.01</v>
@@ -968,8 +1013,8 @@
       <c r="A8" t="s">
         <v>28</v>
       </c>
-      <c r="B8">
-        <v>27.15</v>
+      <c r="B8" t="s">
+        <v>43</v>
       </c>
       <c r="C8">
         <v>27.15</v>
@@ -1036,8 +1081,8 @@
       <c r="A9" t="s">
         <v>29</v>
       </c>
-      <c r="B9">
-        <v>26.93</v>
+      <c r="B9" t="s">
+        <v>44</v>
       </c>
       <c r="C9">
         <v>26.93</v>
@@ -1104,8 +1149,8 @@
       <c r="A10" t="s">
         <v>30</v>
       </c>
-      <c r="B10">
-        <v>41.89</v>
+      <c r="B10" t="s">
+        <v>45</v>
       </c>
       <c r="C10">
         <v>41.89</v>
@@ -1172,8 +1217,8 @@
       <c r="A11" t="s">
         <v>31</v>
       </c>
-      <c r="B11">
-        <v>58.89</v>
+      <c r="B11" t="s">
+        <v>46</v>
       </c>
       <c r="C11">
         <v>58.89</v>
@@ -1240,8 +1285,8 @@
       <c r="A12" t="s">
         <v>32</v>
       </c>
-      <c r="B12">
-        <v>30</v>
+      <c r="B12" t="s">
+        <v>47</v>
       </c>
       <c r="C12">
         <v>30</v>
@@ -1308,8 +1353,8 @@
       <c r="A13" t="s">
         <v>33</v>
       </c>
-      <c r="B13">
-        <v>30.72</v>
+      <c r="B13" t="s">
+        <v>48</v>
       </c>
       <c r="C13">
         <v>30.72</v>
@@ -1376,8 +1421,8 @@
       <c r="A14" t="s">
         <v>34</v>
       </c>
-      <c r="B14">
-        <v>37.68</v>
+      <c r="B14" t="s">
+        <v>49</v>
       </c>
       <c r="C14">
         <v>37.68</v>
@@ -1444,8 +1489,8 @@
       <c r="A15" t="s">
         <v>35</v>
       </c>
-      <c r="B15">
-        <v>30.19</v>
+      <c r="B15" t="s">
+        <v>50</v>
       </c>
       <c r="C15">
         <v>30.19</v>
@@ -1512,8 +1557,8 @@
       <c r="A16" t="s">
         <v>36</v>
       </c>
-      <c r="B16">
-        <v>32.02</v>
+      <c r="B16" t="s">
+        <v>51</v>
       </c>
       <c r="C16">
         <v>32.02</v>
